--- a/01_Documentation/02_resources/excel/control-tc001-repeated-word.xlsx
+++ b/01_Documentation/02_resources/excel/control-tc001-repeated-word.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Preparation</t>
   </si>
@@ -121,12 +121,18 @@
       <t xml:space="preserve"> is not set</t>
     </r>
   </si>
+  <si>
+    <t>No word was repeated</t>
+  </si>
+  <si>
+    <t>All words were picked, see screenshot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +153,13 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,6 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -517,14 +531,14 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.26953125" customWidth="1"/>
+    <col min="4" max="4" width="39.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -658,7 +672,9 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -673,7 +689,9 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
